--- a/11_09_Results/results/evaluation_matrix.xlsx
+++ b/11_09_Results/results/evaluation_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68a98c599bb617ec/Desktop/Uni Master/Semester 5/Master-Arbeit/DownloadedResults/11_09_Results/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="884" documentId="8_{F6AFE438-DC5C-472E-A304-FBF3BAA0A71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C4FE06-9717-41D9-8629-58FD1C75C098}"/>
+  <xr:revisionPtr revIDLastSave="904" documentId="8_{F6AFE438-DC5C-472E-A304-FBF3BAA0A71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AABF6067-CD58-4FAB-A139-A4733D198291}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28F1C543-DE1D-4492-92B1-4E1F659DB7D1}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>Continued Questiion</t>
-  </si>
-  <si>
     <t>Model Crashed</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t xml:space="preserve">Amount func. Json  </t>
+  </si>
+  <si>
+    <t>Continued Question</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amount is Patient  </c:v>
+                  <c:v>Amount func. Json  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2478,25 +2478,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2516,7 +2516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amount func. Json  </c:v>
+                  <c:v>Amount is Patient  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2567,25 +2567,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,6 +4079,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Christoph" refreshedDate="45551.422360532408" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{350B1AE3-7B1B-462A-94D6-F7387DBA529E}">
   <cacheSource type="worksheet">
@@ -5854,7 +5858,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE5DCBB2-E5FE-427C-908C-F592EA8AD8E6}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE5DCBB2-E5FE-427C-908C-F592EA8AD8E6}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="M34:O42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -5918,15 +5922,15 @@
     </i>
   </colItems>
   <dataFields count="2">
+    <dataField name="Amount func. Json  " fld="7" baseField="1" baseItem="0"/>
     <dataField name="Amount is Patient  " fld="6" baseField="1" baseItem="0"/>
-    <dataField name="Amount func. Json  " fld="7" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5935,7 +5939,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -5980,7 +5984,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1888802E-C9FB-4D66-A8D2-06A5803B026A}" name="Tabelle2" displayName="Tabelle2" ref="A89:L155" totalsRowShown="0">
   <autoFilter ref="A89:L155" xr:uid="{1888802E-C9FB-4D66-A8D2-06A5803B026A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:L155">
-    <sortCondition ref="F89:F155"/>
+    <sortCondition ref="A89:A155"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" xr3:uid="{12B84AB8-018F-4689-9356-5A056A45F09F}" name="Index"/>
@@ -6319,8 +6323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB268E19-FA6E-4C4F-A5F9-61B62BF10645}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="B1:C78 H1:I78"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,7 +6351,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -6371,7 +6375,7 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -6385,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -6409,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -6420,13 +6424,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6455,13 +6459,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -6479,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -6490,13 +6494,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -6514,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -6525,13 +6529,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6552,7 +6556,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6560,13 +6564,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6587,7 +6591,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6595,13 +6599,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -6619,10 +6623,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
         <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6630,13 +6634,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -6654,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -6665,13 +6669,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -6689,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -6700,13 +6704,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6724,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -6735,13 +6739,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6770,13 +6774,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6797,7 +6801,7 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6805,13 +6809,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -6832,7 +6836,7 @@
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6840,13 +6844,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -6864,10 +6868,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
         <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6875,13 +6879,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6910,13 +6914,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -6945,13 +6949,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -6980,13 +6984,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7015,13 +7019,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -7042,7 +7046,7 @@
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7050,13 +7054,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -7077,7 +7081,7 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7085,13 +7089,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -7112,7 +7116,7 @@
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7120,13 +7124,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -7155,13 +7159,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -7190,13 +7194,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>-1</v>
@@ -7225,13 +7229,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -7260,13 +7264,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7287,7 +7291,7 @@
         <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7295,13 +7299,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -7322,7 +7326,7 @@
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7330,13 +7334,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -7357,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7365,13 +7369,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -7389,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -7400,13 +7404,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -7424,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
@@ -7435,13 +7439,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -7459,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -7470,13 +7474,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -7494,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -7505,13 +7509,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -7529,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7540,13 +7544,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7564,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -7575,13 +7579,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -7599,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
         <v>19</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7610,13 +7614,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -7634,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
@@ -7645,13 +7649,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -7669,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -7680,13 +7684,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -7704,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
@@ -7715,13 +7719,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -7750,13 +7754,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -7777,7 +7781,7 @@
         <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7785,13 +7789,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -7812,7 +7816,7 @@
         <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7820,13 +7824,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -7847,7 +7851,7 @@
         <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7855,13 +7859,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44">
         <v>-1</v>
@@ -7879,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
         <v>14</v>
@@ -7890,13 +7894,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -7925,13 +7929,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -7949,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s">
         <v>14</v>
@@ -7960,13 +7964,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -7984,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
         <v>14</v>
@@ -7995,13 +7999,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8022,7 +8026,7 @@
         <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -8030,13 +8034,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -8057,7 +8061,7 @@
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -8065,13 +8069,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-1</v>
@@ -8089,10 +8093,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
         <v>19</v>
-      </c>
-      <c r="K50" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -8100,13 +8104,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -8135,13 +8139,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -8170,13 +8174,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -8205,13 +8209,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -8240,13 +8244,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -8267,7 +8271,7 @@
         <v>15</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -8275,13 +8279,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -8302,7 +8306,7 @@
         <v>15</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -8310,13 +8314,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -8337,7 +8341,7 @@
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -8345,13 +8349,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -8380,13 +8384,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -8415,13 +8419,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -8450,13 +8454,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -8485,13 +8489,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -8512,7 +8516,7 @@
         <v>15</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8520,13 +8524,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -8547,7 +8551,7 @@
         <v>15</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -8555,13 +8559,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -8582,7 +8586,7 @@
         <v>15</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8590,13 +8594,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -8625,13 +8629,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -8660,13 +8664,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67">
         <v>-1</v>
@@ -8684,10 +8688,10 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8695,13 +8699,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -8730,13 +8734,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -8757,7 +8761,7 @@
         <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8765,13 +8769,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -8792,7 +8796,7 @@
         <v>15</v>
       </c>
       <c r="K70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8800,13 +8804,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -8827,7 +8831,7 @@
         <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8835,13 +8839,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -8870,13 +8874,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -8905,13 +8909,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C74" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -8940,13 +8944,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -8975,13 +8979,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -9002,7 +9006,7 @@
         <v>15</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -9010,13 +9014,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -9037,7 +9041,7 @@
         <v>15</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -9045,13 +9049,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -9072,7 +9076,7 @@
         <v>15</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -9082,7 +9086,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -9092,17 +9096,17 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -9129,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="J89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
         <v>10</v>
@@ -9140,174 +9144,174 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F90">
-        <v>191</v>
+        <v>881</v>
       </c>
       <c r="G90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
         <v>15</v>
       </c>
       <c r="L90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F91">
-        <v>191</v>
+        <v>871</v>
       </c>
       <c r="G91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
         <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F92">
-        <v>194</v>
+        <v>933</v>
       </c>
       <c r="G92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F93">
-        <v>194</v>
+        <v>909</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="L93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F94">
-        <v>203</v>
+        <v>1366</v>
       </c>
       <c r="G94" t="s">
         <v>1</v>
@@ -9316,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>0</v>
@@ -9325,103 +9329,103 @@
         <v>15</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F95">
-        <v>219</v>
+        <v>1069</v>
       </c>
       <c r="G95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="s">
         <v>15</v>
       </c>
       <c r="L95" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F96">
-        <v>295</v>
+        <v>894</v>
       </c>
       <c r="G96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
         <v>15</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F97">
-        <v>727</v>
+        <v>1020</v>
       </c>
       <c r="G97" t="s">
         <v>1</v>
@@ -9433,36 +9437,36 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F98">
-        <v>727</v>
+        <v>901</v>
       </c>
       <c r="G98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>1</v>
@@ -9471,36 +9475,36 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="L98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F99">
-        <v>742</v>
+        <v>921</v>
       </c>
       <c r="G99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>1</v>
@@ -9509,36 +9513,36 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="L99" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
         <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F100">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="G100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>1</v>
@@ -9547,71 +9551,71 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="s">
         <v>15</v>
       </c>
       <c r="L100" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
         <v>112</v>
       </c>
       <c r="E101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>842</v>
+        <v>295</v>
       </c>
       <c r="G101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
         <v>15</v>
       </c>
       <c r="L101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E102">
         <v>-1</v>
       </c>
       <c r="F102">
-        <v>858</v>
+        <v>1060</v>
       </c>
       <c r="G102" t="s">
         <v>0</v>
@@ -9626,30 +9630,30 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" t="s">
         <v>14</v>
-      </c>
-      <c r="L102" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E103">
         <v>-1</v>
       </c>
       <c r="F103">
-        <v>866</v>
+        <v>1009</v>
       </c>
       <c r="G103" t="s">
         <v>0</v>
@@ -9664,30 +9668,30 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E104">
         <v>-1</v>
       </c>
       <c r="F104">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="G104" t="s">
         <v>0</v>
@@ -9702,30 +9706,30 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
+        <v>15</v>
+      </c>
+      <c r="L104" t="s">
         <v>14</v>
-      </c>
-      <c r="L104" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="E105">
         <v>-1</v>
       </c>
       <c r="F105">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="G105" t="s">
         <v>0</v>
@@ -9743,27 +9747,27 @@
         <v>15</v>
       </c>
       <c r="L105" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E106">
         <v>-1</v>
       </c>
       <c r="F106">
-        <v>867</v>
+        <v>948</v>
       </c>
       <c r="G106" t="s">
         <v>0</v>
@@ -9781,27 +9785,27 @@
         <v>15</v>
       </c>
       <c r="L106" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E107">
         <v>-1</v>
       </c>
       <c r="F107">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="G107" t="s">
         <v>0</v>
@@ -9819,27 +9823,27 @@
         <v>15</v>
       </c>
       <c r="L107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E108">
         <v>-1</v>
       </c>
       <c r="F108">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G108" t="s">
         <v>0</v>
@@ -9854,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L108" t="s">
         <v>14</v>
@@ -9862,22 +9866,22 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E109">
         <v>-1</v>
       </c>
       <c r="F109">
-        <v>869</v>
+        <v>1753</v>
       </c>
       <c r="G109" t="s">
         <v>0</v>
@@ -9892,30 +9896,30 @@
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D110" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E110">
         <v>-1</v>
       </c>
       <c r="F110">
-        <v>869</v>
+        <v>943</v>
       </c>
       <c r="G110" t="s">
         <v>0</v>
@@ -9930,30 +9934,30 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E111">
         <v>-1</v>
       </c>
       <c r="F111">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="G111" t="s">
         <v>0</v>
@@ -9968,30 +9972,30 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="E112">
         <v>-1</v>
       </c>
       <c r="F112">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G112" t="s">
         <v>0</v>
@@ -10006,30 +10010,30 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L112" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="C113" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E113">
         <v>-1</v>
       </c>
       <c r="F113">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="G113" t="s">
         <v>0</v>
@@ -10044,30 +10048,30 @@
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E114">
         <v>-1</v>
       </c>
       <c r="F114">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G114" t="s">
         <v>0</v>
@@ -10082,30 +10086,30 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E115">
         <v>-1</v>
       </c>
       <c r="F115">
-        <v>870</v>
+        <v>934</v>
       </c>
       <c r="G115" t="s">
         <v>0</v>
@@ -10120,30 +10124,30 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D116" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E116">
         <v>-1</v>
       </c>
       <c r="F116">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="G116" t="s">
         <v>0</v>
@@ -10158,30 +10162,30 @@
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>-1</v>
       </c>
       <c r="F117">
-        <v>871</v>
+        <v>1073</v>
       </c>
       <c r="G117" t="s">
         <v>0</v>
@@ -10196,7 +10200,7 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L117" t="s">
         <v>14</v>
@@ -10204,16 +10208,16 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D118" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E118">
         <v>-1</v>
@@ -10234,30 +10238,30 @@
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L118" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="E119">
         <v>-1</v>
       </c>
       <c r="F119">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="G119" t="s">
         <v>0</v>
@@ -10272,30 +10276,30 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E120">
         <v>-1</v>
       </c>
       <c r="F120">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G120" t="s">
         <v>0</v>
@@ -10318,16 +10322,16 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E121">
         <v>-1</v>
@@ -10351,30 +10355,30 @@
         <v>15</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E122">
         <v>-1</v>
       </c>
       <c r="F122">
-        <v>872</v>
+        <v>1004</v>
       </c>
       <c r="G122" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>1</v>
@@ -10386,30 +10390,30 @@
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L122" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D123" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E123">
         <v>-1</v>
       </c>
       <c r="F123">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G123" t="s">
         <v>0</v>
@@ -10432,22 +10436,22 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
         <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E124">
         <v>-1</v>
       </c>
       <c r="F124">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="G124" t="s">
         <v>0</v>
@@ -10465,27 +10469,27 @@
         <v>15</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D125" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E125">
         <v>-1</v>
       </c>
       <c r="F125">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="G125" t="s">
         <v>0</v>
@@ -10503,27 +10507,27 @@
         <v>15</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>-1</v>
       </c>
       <c r="F126">
-        <v>881</v>
+        <v>929</v>
       </c>
       <c r="G126" t="s">
         <v>0</v>
@@ -10538,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L126" t="s">
         <v>14</v>
@@ -10546,22 +10550,22 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E127">
         <v>-1</v>
       </c>
       <c r="F127">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="G127" t="s">
         <v>0</v>
@@ -10579,27 +10583,27 @@
         <v>15</v>
       </c>
       <c r="L127" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
         <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E128">
         <v>-1</v>
       </c>
       <c r="F128">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="G128" t="s">
         <v>0</v>
@@ -10614,30 +10618,30 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L128" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E129">
         <v>-1</v>
       </c>
       <c r="F129">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
@@ -10652,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L129" t="s">
         <v>14</v>
@@ -10660,22 +10664,22 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C130" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E130">
         <v>-1</v>
       </c>
       <c r="F130">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G130" t="s">
         <v>0</v>
@@ -10690,30 +10694,30 @@
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C131" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D131" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E131">
         <v>-1</v>
       </c>
       <c r="F131">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G131" t="s">
         <v>0</v>
@@ -10731,27 +10735,27 @@
         <v>15</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D132" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E132">
         <v>-1</v>
       </c>
       <c r="F132">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="G132" t="s">
         <v>0</v>
@@ -10769,27 +10773,27 @@
         <v>15</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E133">
         <v>-1</v>
       </c>
       <c r="F133">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="G133" t="s">
         <v>0</v>
@@ -10804,30 +10808,30 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D134" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="E134">
         <v>-1</v>
       </c>
       <c r="F134">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="G134" t="s">
         <v>0</v>
@@ -10842,30 +10846,30 @@
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="E135">
         <v>-1</v>
       </c>
       <c r="F135">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="G135" t="s">
         <v>0</v>
@@ -10883,27 +10887,27 @@
         <v>15</v>
       </c>
       <c r="L135" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C136" t="s">
         <v>105</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E136">
         <v>-1</v>
       </c>
       <c r="F136">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="G136" t="s">
         <v>0</v>
@@ -10921,27 +10925,27 @@
         <v>15</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D137" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E137">
         <v>-1</v>
       </c>
       <c r="F137">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="G137" t="s">
         <v>0</v>
@@ -10959,103 +10963,103 @@
         <v>15</v>
       </c>
       <c r="L137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="E138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>901</v>
+        <v>194</v>
       </c>
       <c r="G138" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>909</v>
+        <v>219</v>
       </c>
       <c r="G139" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C140" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D140" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E140">
         <v>-1</v>
       </c>
       <c r="F140">
-        <v>921</v>
+        <v>867</v>
       </c>
       <c r="G140" t="s">
         <v>0</v>
@@ -11070,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L140" t="s">
         <v>14</v>
@@ -11078,25 +11082,25 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C141" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>929</v>
+        <v>836</v>
       </c>
       <c r="G141" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>1</v>
@@ -11105,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L141" t="s">
         <v>14</v>
@@ -11116,25 +11120,25 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C142" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D142" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="E142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>932</v>
+        <v>727</v>
       </c>
       <c r="G142" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>1</v>
@@ -11143,71 +11147,71 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L142" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D143" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>933</v>
+        <v>203</v>
       </c>
       <c r="G143" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L143" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C144" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="E144">
         <v>-1</v>
       </c>
       <c r="F144">
-        <v>934</v>
+        <v>869</v>
       </c>
       <c r="G144" t="s">
         <v>0</v>
@@ -11222,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L144" t="s">
         <v>14</v>
@@ -11230,25 +11234,25 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C145" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E145">
         <v>-1</v>
       </c>
       <c r="F145">
-        <v>943</v>
+        <v>1024</v>
       </c>
       <c r="G145" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>1</v>
@@ -11260,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L145" t="s">
         <v>14</v>
@@ -11268,22 +11272,22 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C146" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D146" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E146">
         <v>-1</v>
       </c>
       <c r="F146">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="G146" t="s">
         <v>0</v>
@@ -11298,33 +11302,33 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L146" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C147" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D147" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="E147">
         <v>-1</v>
       </c>
       <c r="F147">
-        <v>1004</v>
+        <v>873</v>
       </c>
       <c r="G147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="s">
         <v>1</v>
@@ -11339,27 +11343,27 @@
         <v>15</v>
       </c>
       <c r="L147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B148" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C148" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D148" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E148">
         <v>-1</v>
       </c>
       <c r="F148">
-        <v>1009</v>
+        <v>884</v>
       </c>
       <c r="G148" t="s">
         <v>0</v>
@@ -11377,30 +11381,30 @@
         <v>15</v>
       </c>
       <c r="L148" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C149" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D149" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E149">
         <v>-1</v>
       </c>
       <c r="F149">
-        <v>1020</v>
+        <v>869</v>
       </c>
       <c r="G149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="s">
         <v>1</v>
@@ -11412,30 +11416,30 @@
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L149" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B150" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C150" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="E150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1024</v>
+        <v>194</v>
       </c>
       <c r="G150" t="s">
         <v>1</v>
@@ -11444,36 +11448,36 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
         <v>15</v>
       </c>
       <c r="L150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C151" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D151" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E151">
         <v>-1</v>
       </c>
       <c r="F151">
-        <v>1060</v>
+        <v>869</v>
       </c>
       <c r="G151" t="s">
         <v>0</v>
@@ -11491,68 +11495,68 @@
         <v>15</v>
       </c>
       <c r="L151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C152" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D152" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1069</v>
+        <v>191</v>
       </c>
       <c r="G152" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
         <v>15</v>
       </c>
       <c r="L152" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C153" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1073</v>
+        <v>727</v>
       </c>
       <c r="G153" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>1</v>
@@ -11561,33 +11565,33 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D154" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1366</v>
+        <v>742</v>
       </c>
       <c r="G154" t="s">
         <v>1</v>
@@ -11605,45 +11609,45 @@
         <v>15</v>
       </c>
       <c r="L154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C155" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D155" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="E155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1753</v>
+        <v>191</v>
       </c>
       <c r="G155" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L155" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11672,8 +11676,8 @@
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -11698,36 +11702,36 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>153</v>
-      </c>
-      <c r="O3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -11752,7 +11756,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -11763,10 +11767,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
@@ -11783,7 +11787,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -11794,10 +11798,10 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -11814,7 +11818,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N6">
         <v>6</v>
@@ -11825,10 +11829,10 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -11845,7 +11849,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7">
         <v>7</v>
@@ -11856,10 +11860,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -11876,7 +11880,7 @@
         <v>11</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>6</v>
@@ -11887,10 +11891,10 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -11907,7 +11911,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -11918,10 +11922,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -11938,7 +11942,7 @@
         <v>7</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>7</v>
@@ -11949,10 +11953,10 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -11969,7 +11973,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -11980,10 +11984,10 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
@@ -11992,7 +11996,7 @@
         <v>14</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N12">
         <v>7</v>
@@ -12003,10 +12007,10 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -12015,7 +12019,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>7</v>
@@ -12026,10 +12030,10 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
@@ -12038,7 +12042,7 @@
         <v>15</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -12049,10 +12053,10 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
@@ -12061,7 +12065,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N15">
         <v>61</v>
@@ -12072,10 +12076,10 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -12086,10 +12090,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
@@ -12100,10 +12104,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -12122,10 +12126,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -12136,10 +12140,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -12150,10 +12154,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
@@ -12164,10 +12168,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>14</v>
@@ -12178,10 +12182,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
@@ -12192,10 +12196,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
@@ -12206,10 +12210,10 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>14</v>
@@ -12228,10 +12232,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>15</v>
@@ -12242,10 +12246,10 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>14</v>
@@ -12256,10 +12260,10 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>14</v>
@@ -12270,10 +12274,10 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>14</v>
@@ -12284,10 +12288,10 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>15</v>
@@ -12298,10 +12302,10 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -12312,10 +12316,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>14</v>
@@ -12334,10 +12338,10 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>14</v>
@@ -12348,10 +12352,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>15</v>
@@ -12360,21 +12364,21 @@
         <v>15</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N34" t="s">
         <v>164</v>
       </c>
       <c r="O34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>14</v>
@@ -12383,21 +12387,21 @@
         <v>15</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35">
         <v>5</v>
-      </c>
-      <c r="O35">
-        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
@@ -12406,21 +12410,21 @@
         <v>15</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36">
         <v>7</v>
-      </c>
-      <c r="O36">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>15</v>
@@ -12429,21 +12433,21 @@
         <v>15</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
         <v>4</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -12452,21 +12456,21 @@
         <v>14</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
         <v>6</v>
-      </c>
-      <c r="O38">
-        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -12483,21 +12487,21 @@
         <v>3</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N39">
+        <v>11</v>
+      </c>
+      <c r="O39">
         <v>7</v>
-      </c>
-      <c r="O39">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>14</v>
@@ -12506,7 +12510,7 @@
         <v>14</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N40">
         <v>10</v>
@@ -12517,10 +12521,10 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>14</v>
@@ -12529,21 +12533,21 @@
         <v>14</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41">
         <v>4</v>
-      </c>
-      <c r="O41">
-        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -12552,21 +12556,21 @@
         <v>14</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N42">
+        <v>57</v>
+      </c>
+      <c r="O42">
         <v>43</v>
-      </c>
-      <c r="O42">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>14</v>
@@ -12577,10 +12581,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -12591,10 +12595,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>14</v>
@@ -12605,10 +12609,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>14</v>
@@ -12627,10 +12631,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>15</v>
@@ -12641,10 +12645,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>14</v>
@@ -12655,10 +12659,10 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>14</v>
@@ -12669,10 +12673,10 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>15</v>
@@ -12683,10 +12687,10 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>15</v>
@@ -12697,10 +12701,10 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>14</v>
@@ -12711,10 +12715,10 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>15</v>
@@ -12733,10 +12737,10 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>15</v>
@@ -12747,10 +12751,10 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>15</v>
@@ -12761,10 +12765,10 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>15</v>
@@ -12775,10 +12779,10 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>15</v>
@@ -12789,10 +12793,10 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>15</v>
@@ -12803,10 +12807,10 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>15</v>
@@ -12817,10 +12821,10 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>15</v>
@@ -12839,10 +12843,10 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>15</v>
@@ -12853,10 +12857,10 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>15</v>
@@ -12867,10 +12871,10 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>15</v>
@@ -12881,10 +12885,10 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>15</v>
@@ -12895,10 +12899,10 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>15</v>
@@ -12909,10 +12913,10 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>15</v>
@@ -12923,10 +12927,10 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>15</v>
@@ -12945,10 +12949,10 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>15</v>
@@ -12959,10 +12963,10 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>14</v>
@@ -12973,10 +12977,10 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>15</v>
@@ -12987,10 +12991,10 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>15</v>
@@ -13001,10 +13005,10 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>15</v>
@@ -13015,10 +13019,10 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>15</v>
@@ -13029,10 +13033,10 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>15</v>
@@ -13051,10 +13055,10 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>15</v>
@@ -13065,10 +13069,10 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>15</v>
@@ -13079,10 +13083,10 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>15</v>
@@ -13093,10 +13097,10 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>15</v>
@@ -13107,10 +13111,10 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>15</v>
@@ -13121,10 +13125,10 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
